--- a/data/trans_orig/iP31A_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP31A_R2-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9400FD7F-1AF5-4129-9DCC-E77E985149D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E95ADCD-D13D-409A-8E36-363E3F1FCBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{59098AC1-8CBB-48B5-A3AA-135BFB403EDE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A66FB0AF-924D-41AF-9AB6-6E8EEEDA6082}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -101,55 +101,55 @@
     <t>67,17%</t>
   </si>
   <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
   </si>
   <si>
     <t>59,97%</t>
   </si>
   <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
   </si>
   <si>
     <t>32,83%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
   </si>
   <si>
     <t>40,03%</t>
   </si>
   <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -158,55 +158,55 @@
     <t>64,11%</t>
   </si>
   <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
   </si>
   <si>
     <t>62,47%</t>
   </si>
   <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
   </si>
   <si>
     <t>63,32%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
   </si>
   <si>
     <t>35,89%</t>
   </si>
   <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
   </si>
   <si>
     <t>37,53%</t>
   </si>
   <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
   </si>
   <si>
     <t>36,68%</t>
   </si>
   <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -215,61 +215,61 @@
     <t>62,03%</t>
   </si>
   <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
   </si>
   <si>
     <t>64,26%</t>
   </si>
   <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
   </si>
   <si>
     <t>63,06%</t>
   </si>
   <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
   </si>
   <si>
     <t>37,97%</t>
   </si>
   <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
   </si>
   <si>
     <t>35,74%</t>
   </si>
   <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
   </si>
   <si>
     <t>36,94%</t>
   </si>
   <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
   </si>
   <si>
     <t>63,84%</t>
   </si>
   <si>
-    <t>60,33%</t>
+    <t>60,36%</t>
   </si>
   <si>
     <t>67,32%</t>
@@ -278,16 +278,16 @@
     <t>62,75%</t>
   </si>
   <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
   </si>
   <si>
     <t>36,16%</t>
@@ -296,22 +296,22 @@
     <t>32,68%</t>
   </si>
   <si>
-    <t>39,67%</t>
+    <t>39,64%</t>
   </si>
   <si>
     <t>37,25%</t>
   </si>
   <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -726,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EA03D8-4F8E-468E-B8A7-3CE62C17030A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E5DDE2-3B98-4EEE-820C-722F1045E799}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1047,7 +1047,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>18227</v>
+        <v>18226</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>29</v>
@@ -1098,7 +1098,7 @@
         <v>77</v>
       </c>
       <c r="D9" s="7">
-        <v>55514</v>
+        <v>55513</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>

--- a/data/trans_orig/iP31A_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/iP31A_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E95ADCD-D13D-409A-8E36-363E3F1FCBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F049B7D-DF03-43D2-8555-DC14A924B163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A66FB0AF-924D-41AF-9AB6-6E8EEEDA6082}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{283E419F-B1E5-4DED-B41A-FC38DCE5D639}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Menores según si tienen una alta adherencia a la dieta mediterránea en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,253 +65,238 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -726,8 +711,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E5DDE2-3B98-4EEE-820C-722F1045E799}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFD1230-2FF7-4993-A8C7-7CDD3F53BA85}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -844,96 +829,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D4" s="7">
+        <v>29258</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>38099</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>67356</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="D5" s="7">
+        <v>24441</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>20246</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>44687</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -942,151 +931,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53699</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>58345</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>112043</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>52</v>
+        <v>397</v>
       </c>
       <c r="D7" s="7">
-        <v>37287</v>
+        <v>267628</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
+        <v>411</v>
+      </c>
+      <c r="I7" s="7">
+        <v>312627</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7">
+        <v>808</v>
+      </c>
+      <c r="N7" s="7">
+        <v>580255</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="I7" s="7">
-        <v>30075</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="7">
-        <v>92</v>
-      </c>
-      <c r="N7" s="7">
-        <v>67362</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c r="D8" s="7">
-        <v>18226</v>
+        <v>184204</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="I8" s="7">
-        <v>20079</v>
+        <v>192623</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>52</v>
+        <v>447</v>
       </c>
       <c r="N8" s="7">
-        <v>38305</v>
+        <v>376827</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1095,153 +1086,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>77</v>
+        <v>625</v>
       </c>
       <c r="D9" s="7">
-        <v>55513</v>
+        <v>451832</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>630</v>
       </c>
       <c r="I9" s="7">
-        <v>50154</v>
+        <v>505250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>144</v>
+        <v>1255</v>
       </c>
       <c r="N9" s="7">
-        <v>105667</v>
+        <v>957082</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>411</v>
+        <v>142</v>
       </c>
       <c r="D10" s="7">
-        <v>308570</v>
+        <v>92760</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>397</v>
+        <v>144</v>
       </c>
       <c r="I10" s="7">
-        <v>275636</v>
+        <v>110512</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>808</v>
+        <v>286</v>
       </c>
       <c r="N10" s="7">
-        <v>584206</v>
+        <v>203271</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7">
-        <v>172756</v>
+        <v>53426</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c r="I11" s="7">
-        <v>165618</v>
+        <v>70627</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>447</v>
+        <v>169</v>
       </c>
       <c r="N11" s="7">
-        <v>338374</v>
+        <v>124053</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1250,153 +1241,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>630</v>
+        <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>481326</v>
+        <v>146186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>625</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>441254</v>
+        <v>181139</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1255</v>
+        <v>455</v>
       </c>
       <c r="N12" s="7">
-        <v>922580</v>
+        <v>327324</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>144</v>
+        <v>579</v>
       </c>
       <c r="D13" s="7">
-        <v>106991</v>
+        <v>389645</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>142</v>
+        <v>607</v>
       </c>
       <c r="I13" s="7">
-        <v>95120</v>
+        <v>461237</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>286</v>
+        <v>1186</v>
       </c>
       <c r="N13" s="7">
-        <v>202111</v>
+        <v>850883</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>89</v>
+        <v>335</v>
       </c>
       <c r="D14" s="7">
-        <v>65503</v>
+        <v>262072</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>80</v>
+        <v>333</v>
       </c>
       <c r="I14" s="7">
-        <v>52910</v>
+        <v>283496</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>169</v>
+        <v>668</v>
       </c>
       <c r="N14" s="7">
-        <v>118413</v>
+        <v>545567</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1405,216 +1396,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>233</v>
+        <v>914</v>
       </c>
       <c r="D15" s="7">
-        <v>172494</v>
+        <v>651717</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>222</v>
+        <v>940</v>
       </c>
       <c r="I15" s="7">
-        <v>148030</v>
+        <v>744733</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>455</v>
+        <v>1854</v>
       </c>
       <c r="N15" s="7">
-        <v>320524</v>
+        <v>1396450</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>607</v>
-      </c>
-      <c r="D16" s="7">
-        <v>452848</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>580</v>
-      </c>
-      <c r="I16" s="7">
-        <v>402002</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1187</v>
-      </c>
-      <c r="N16" s="7">
-        <v>854850</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>333</v>
-      </c>
-      <c r="D17" s="7">
-        <v>256485</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="7">
-        <v>335</v>
-      </c>
-      <c r="I17" s="7">
-        <v>238607</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" s="7">
-        <v>668</v>
-      </c>
-      <c r="N17" s="7">
-        <v>495092</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>940</v>
-      </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
-      <c r="I18" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
